--- a/Jogos_do_Dia/2023-01-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -814,7 +814,7 @@
         <v>2.73</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE3" t="n">
         <v>1.62</v>
@@ -826,7 +826,7 @@
         <v>2.53</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="H4" t="n">
-        <v>2.66</v>
+        <v>3.03</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>3.61</v>
       </c>
       <c r="M4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -983,10 +983,10 @@
         <v>2.55</v>
       </c>
       <c r="M5" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="O5" t="n">
         <v>1.54</v>
@@ -1025,28 +1025,28 @@
         <v>2.74</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>4.65</v>
+        <v>5.76</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>8.49</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1093,10 +1093,10 @@
         <v>5.61</v>
       </c>
       <c r="M6" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="G7" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
         <v>1.11</v>
@@ -1197,10 +1197,10 @@
         <v>6.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>2.52</v>
@@ -1245,28 +1245,28 @@
         <v>2.11</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="H9" t="n">
-        <v>4.35</v>
+        <v>4.16</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1423,10 +1423,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="N9" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1465,13 +1465,13 @@
         <v>3.26</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD9" t="n">
         <v>1.25</v>
@@ -1575,28 +1575,28 @@
         <v>2.99</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -1685,28 +1685,28 @@
         <v>3.51</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
@@ -1795,28 +1795,28 @@
         <v>2.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
@@ -1905,28 +1905,28 @@
         <v>2.48</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -2015,28 +2015,28 @@
         <v>2.77</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>3.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="N15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2134,7 +2134,7 @@
         <v>3.35</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE15" t="n">
         <v>1.29</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2193,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N16" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="G17" t="n">
-        <v>3.14</v>
+        <v>2.79</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="I17" t="n">
         <v>1.1</v>
@@ -2303,10 +2303,10 @@
         <v>2.62</v>
       </c>
       <c r="M17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2354,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="N18" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>1.11</v>
@@ -2523,10 +2523,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N19" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="O19" t="n">
         <v>1.51</v>
@@ -2574,13 +2574,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="G20" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="H20" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>1.1</v>
@@ -2633,10 +2633,10 @@
         <v>2.62</v>
       </c>
       <c r="M20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="G21" t="n">
-        <v>3.74</v>
+        <v>3.29</v>
       </c>
       <c r="H21" t="n">
-        <v>5.65</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.1</v>
@@ -2743,10 +2743,10 @@
         <v>2.75</v>
       </c>
       <c r="M21" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O21" t="n">
         <v>1.48</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -2835,10 +2835,10 @@
         <v>2.23</v>
       </c>
       <c r="G22" t="n">
-        <v>3.13</v>
+        <v>2.91</v>
       </c>
       <c r="H22" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>1.11</v>
@@ -2847,16 +2847,16 @@
         <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="M22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O22" t="n">
         <v>1.57</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
@@ -2966,7 +2966,7 @@
         <v>1.61</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.86</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.92</v>
+        <v>3.63</v>
       </c>
       <c r="I25" t="n">
         <v>1.08</v>
@@ -3186,7 +3186,7 @@
         <v>2.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="I26" t="n">
         <v>1.14</v>
@@ -3290,13 +3290,13 @@
         <v>1.68</v>
       </c>
       <c r="L26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="N27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.88</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="I28" t="n">
         <v>1.05</v>
@@ -3513,10 +3513,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="I29" t="n">
         <v>1.1</v>
@@ -3623,10 +3623,10 @@
         <v>2.62</v>
       </c>
       <c r="M29" t="n">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="N29" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O29" t="n">
         <v>1.49</v>

--- a/Jogos_do_Dia/2023-01-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.92</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="N2" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -680,10 +680,10 @@
         <v>1.35</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
         <v>1.5</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -832,221 +832,221 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44939.45833333334</v>
+        <v>44939.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.59</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>10.65</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.61</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="N4" t="n">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
-        <v>2.87</v>
+        <v>2.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="S4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.39</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.61</v>
+        <v>1.09</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44939.5</v>
+        <v>44939.54166666666</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>2.17</v>
       </c>
       <c r="G5" t="n">
-        <v>2.89</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>10.65</v>
       </c>
       <c r="K5" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="L5" t="n">
-        <v>2.55</v>
+        <v>3.61</v>
       </c>
       <c r="M5" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="N5" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.35</v>
+        <v>2.87</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.05</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.71</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.76</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="X5" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.58</v>
+        <v>1.73</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.76</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1093,10 +1093,10 @@
         <v>5.61</v>
       </c>
       <c r="M6" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="N6" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="I7" t="n">
         <v>1.11</v>
@@ -1200,13 +1200,13 @@
         <v>1.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N7" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O7" t="n">
         <v>1.55</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1355,16 +1355,16 @@
         <v>2.58</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE8" t="n">
         <v>1.26</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1423,10 +1423,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="N9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2065,10 +2065,10 @@
         <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>3.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2196,7 +2196,7 @@
         <v>2.12</v>
       </c>
       <c r="N16" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2235,13 +2235,13 @@
         <v>2.52</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD16" t="n">
         <v>1.44</v>
@@ -2253,10 +2253,10 @@
         <v>2.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="I17" t="n">
         <v>1.1</v>
@@ -2303,10 +2303,10 @@
         <v>2.62</v>
       </c>
       <c r="M17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N17" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2345,13 +2345,13 @@
         <v>2.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD17" t="n">
         <v>1.57</v>
@@ -2363,10 +2363,10 @@
         <v>2.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="N18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2455,28 +2455,28 @@
         <v>2.66</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AE18" t="n">
         <v>1.88</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.11</v>
@@ -2523,10 +2523,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="N19" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.51</v>
@@ -2565,13 +2565,13 @@
         <v>2.67</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD19" t="n">
         <v>1.5</v>
@@ -2583,10 +2583,10 @@
         <v>2.38</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="G20" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
         <v>1.1</v>
@@ -2633,10 +2633,10 @@
         <v>2.62</v>
       </c>
       <c r="M20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -2675,13 +2675,13 @@
         <v>2.44</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD20" t="n">
         <v>1.5</v>
@@ -2693,10 +2693,10 @@
         <v>2.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G21" t="n">
-        <v>3.29</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.1</v>
@@ -2743,10 +2743,10 @@
         <v>2.75</v>
       </c>
       <c r="M21" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="N21" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="O21" t="n">
         <v>1.48</v>
@@ -2785,13 +2785,13 @@
         <v>2.92</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AD21" t="n">
         <v>1.5</v>
@@ -2803,10 +2803,10 @@
         <v>2.25</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>1.11</v>
@@ -2853,10 +2853,10 @@
         <v>2.48</v>
       </c>
       <c r="M22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="O22" t="n">
         <v>1.57</v>
@@ -2895,13 +2895,13 @@
         <v>2.41</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD22" t="n">
         <v>1.5</v>
@@ -2913,10 +2913,10 @@
         <v>2.38</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
@@ -2963,10 +2963,10 @@
         <v>4.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="N23" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>3.86</v>
+        <v>3.65</v>
       </c>
       <c r="H24" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>1.08</v>
@@ -3183,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3225,13 +3225,13 @@
         <v>3.22</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
         <v>1.44</v>
@@ -3243,10 +3243,10 @@
         <v>2.2</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.22</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.14</v>
@@ -3290,13 +3290,13 @@
         <v>1.68</v>
       </c>
       <c r="L26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M26" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="N27" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G28" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.68</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
         <v>1.05</v>
@@ -3516,7 +3516,7 @@
         <v>1.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.1</v>
@@ -3623,7 +3623,7 @@
         <v>2.62</v>
       </c>
       <c r="M29" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="N29" t="n">
         <v>1.61</v>
